--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,132 +43,150 @@
     <t>war</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>arrested</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>uncertainty</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>low</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>wrong</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fear</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>affected</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>facing</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -178,145 +196,175 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>check</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
 </sst>
 </file>
@@ -674,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -793,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -811,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -835,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -843,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -861,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9117647058823529</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,31 +959,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L6">
+        <v>56</v>
+      </c>
+      <c r="M6">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6">
-        <v>0.9321148825065274</v>
-      </c>
-      <c r="L6">
-        <v>357</v>
-      </c>
-      <c r="M6">
-        <v>357</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,16 +1012,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -985,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1014,16 +1062,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1043,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8698630136986302</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1061,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.90625</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L9">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="M9">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1085,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1093,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8695652173913043</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1111,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.9014084507042254</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1135,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1146,10 +1194,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1161,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1185,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1193,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8275862068965517</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1211,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.8875</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L12">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="M12">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1235,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1243,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8205128205128205</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1261,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.8839285714285714</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1285,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1293,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1311,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1335,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1343,13 +1391,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7777777777777778</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1361,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1385,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1393,13 +1441,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7692307692307693</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1411,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.88125</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1435,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1443,13 +1491,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7647058823529411</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1461,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8671875</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1485,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1493,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7567567567567568</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1511,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.8253968253968254</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1535,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1543,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.748062015503876</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C19">
-        <v>386</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>386</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1561,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1585,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1593,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1635,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1643,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7301587301587301</v>
+        <v>0.751937984496124</v>
       </c>
       <c r="C21">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="D21">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1661,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1685,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1693,13 +1741,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.717948717948718</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1711,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.7676470588235295</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1735,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1743,13 +1791,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7096774193548387</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1761,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.7531380753138075</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L23">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1785,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1793,13 +1841,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1811,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.7528089887640449</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1835,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1843,13 +1891,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6956521739130435</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1861,19 +1909,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.7457627118644068</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1885,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1893,13 +1941,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6949152542372882</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1911,19 +1959,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>0.7450980392156863</v>
+        <v>0.7794117647058824</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1935,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1943,13 +1991,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1961,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K27">
-        <v>0.7307692307692307</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1985,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1993,13 +2041,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2011,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.7127659574468085</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L28">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="M28">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2035,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2043,13 +2091,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6510067114093959</v>
+        <v>0.7</v>
       </c>
       <c r="C29">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2061,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2085,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2093,13 +2141,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6363636363636364</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2114,16 +2162,16 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>0.6410256410256411</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2135,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2143,13 +2191,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6363636363636364</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2161,19 +2209,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K31">
-        <v>0.6296296296296297</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2185,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2193,13 +2241,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5892857142857143</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2211,19 +2259,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K32">
-        <v>0.6285714285714286</v>
+        <v>0.7364016736401674</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2235,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2243,13 +2291,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5833333333333334</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2261,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2285,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2293,13 +2341,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5555555555555556</v>
+        <v>0.65625</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2311,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K34">
-        <v>0.6071428571428571</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2335,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2343,13 +2391,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5466666666666666</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C35">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2361,19 +2409,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2385,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2393,13 +2441,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5384615384615384</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2411,19 +2459,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2435,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2443,13 +2491,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5272727272727272</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2461,19 +2509,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K37">
-        <v>0.5909090909090909</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2485,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2493,13 +2541,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4545454545454545</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2511,19 +2559,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K38">
-        <v>0.5777777777777777</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2535,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2543,13 +2591,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4285714285714285</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2561,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K39">
-        <v>0.5753424657534246</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2585,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2593,13 +2641,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4242424242424243</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2611,13 +2659,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L40">
         <v>16</v>
@@ -2635,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2643,13 +2691,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.35</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2661,19 +2709,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K41">
-        <v>0.5151515151515151</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2685,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2693,13 +2741,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.275</v>
+        <v>0.5</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2711,19 +2759,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K42">
-        <v>0.4814814814814815</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2735,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2743,13 +2791,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2619047619047619</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C43">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2761,31 +2809,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K43">
-        <v>0.456140350877193</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L43">
+        <v>44</v>
+      </c>
+      <c r="M43">
+        <v>44</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>26</v>
-      </c>
-      <c r="M43">
-        <v>26</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2793,13 +2841,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2549019607843137</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D44">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2811,19 +2859,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>0.421875</v>
+        <v>0.625</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2835,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2843,13 +2891,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1823056300268097</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C45">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2861,19 +2909,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K45">
-        <v>0.4193548387096774</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2885,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2893,153 +2941,557 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004508856682769726</v>
+        <v>0.425</v>
       </c>
       <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>23</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L46">
+        <v>40</v>
+      </c>
+      <c r="M46">
+        <v>40</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="C47">
+        <v>29</v>
+      </c>
+      <c r="D47">
+        <v>29</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>48</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47">
+        <v>0.5409836065573771</v>
+      </c>
+      <c r="L47">
+        <v>33</v>
+      </c>
+      <c r="M47">
+        <v>33</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.3375</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>53</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L48">
         <v>14</v>
       </c>
-      <c r="D46">
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.3174603174603174</v>
+      </c>
+      <c r="C49">
+        <v>80</v>
+      </c>
+      <c r="D49">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>172</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K49">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="L49">
         <v>16</v>
       </c>
-      <c r="E46">
-        <v>0.12</v>
-      </c>
-      <c r="F46">
-        <v>0.88</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>3091</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K46">
-        <v>0.4146341463414634</v>
-      </c>
-      <c r="L46">
+      <c r="M49">
+        <v>16</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.2091152815013405</v>
+      </c>
+      <c r="C50">
+        <v>78</v>
+      </c>
+      <c r="D50">
+        <v>78</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>295</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50">
+        <v>0.515625</v>
+      </c>
+      <c r="L50">
+        <v>33</v>
+      </c>
+      <c r="M50">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1066666666666667</v>
+      </c>
+      <c r="C51">
+        <v>32</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>268</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K51">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L51">
+        <v>40</v>
+      </c>
+      <c r="M51">
+        <v>40</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.007412181759587496</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>0.15</v>
+      </c>
+      <c r="F52">
+        <v>0.85</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3080</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52">
+        <v>0.5</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53">
+        <v>0.4915254237288136</v>
+      </c>
+      <c r="L53">
+        <v>29</v>
+      </c>
+      <c r="M53">
+        <v>29</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <v>24</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K56">
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="L56">
+        <v>26</v>
+      </c>
+      <c r="M56">
+        <v>26</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K57">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="L57">
         <v>17</v>
       </c>
-      <c r="M46">
-        <v>18</v>
-      </c>
-      <c r="N46">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O46">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K47">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="L47">
+      <c r="M57">
+        <v>17</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K58">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L58">
         <v>14</v>
       </c>
-      <c r="M47">
+      <c r="M58">
         <v>14</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K48">
-        <v>0.3114754098360656</v>
-      </c>
-      <c r="L48">
-        <v>19</v>
-      </c>
-      <c r="M48">
-        <v>19</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L49">
-        <v>17</v>
-      </c>
-      <c r="M49">
-        <v>17</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K50">
-        <v>0.1284403669724771</v>
-      </c>
-      <c r="L50">
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K59">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>15</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K60">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L60">
         <v>14</v>
       </c>
-      <c r="M50">
+      <c r="M60">
         <v>14</v>
       </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>95</v>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
